--- a/medicine/Mort/Terrorisme_en_2006/Terrorisme_en_2006.xlsx
+++ b/medicine/Mort/Terrorisme_en_2006/Terrorisme_en_2006.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Chronologie du terrorisme
@@ -495,7 +507,7 @@
 2009
 2010
 ►►
-2751 attaques terroristes ont eu lieu à travers le monde dont 136 attentats-suicides ont eu lieu en Afghanistan et dans les zones tribales du Pakistan[1], entraînant la mort de 9 362 personnes.
+2751 attaques terroristes ont eu lieu à travers le monde dont 136 attentats-suicides ont eu lieu en Afghanistan et dans les zones tribales du Pakistan, entraînant la mort de 9 362 personnes.
 </t>
         </is>
       </c>
@@ -526,36 +538,380 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Janvier
-5 janvier, Irak : une série d'attentats-suicides à Karbala et Ramadi fait 120 morts et 160 blessés[2].
-Février
-Mars
-7 mars, Inde : une série d'attentats à la bombe à Varanasi fait 20 morts et 60 blessés[3].
-Avril
-7 avril, Irak : un triple attentat-suicide près d'une mosquée chiite à Bagdad fait 85 morts et 160 blessés[4].
-11 avril, Pakistan : un attentat-suicide à Karachi fait 57 morts et 80 blessés[5].
-24 avril, Égypte : un triple attentat à Dahab en Égypte fait vingt-quatre morts et quatre-vingt-cinq blessés[6]. (voir l'article Attentats du 24 avril 2006 à Dahab pour plus de détails)
-Mai
-16 mai, Russie : le procès de Nourpachi Koulaev, unique terroriste survivant de la prise d'otages de Beslan, en septembre 2004, commence[7].
-26 mai, Russie : Nourpachi Koulaevest condamné à mort. Toutefois, compte tenu du moratoire sur la peine de mort ordonné en 1999, sa peine est commuée en prison à vie[7].
-Juin
-15 juin, Sri Lanka : un attentat attribué aux Tigres Tamouls fait soixante-quatre morts au Sri Lanka[réf. obsolète].
-Juillet
-9 juillet, Irak : un attentat à la voiture piégée à Bagdad fait 40 morts[8].
-11 juillet, Inde : une série d'attentats dans les transports ferroviaires de Bombay — sept explosions dans différents trains — font cent quatre-vingt-trois morts[9]. (voir l'article Attentats de Bombay du 11 juillet 2006 pour plus de détails)
-17 juillet, Irak : une attaque au mortier contre un marché à Mahmoudiyah fait 48 morts et 60 blessés[10].
-18 juillet, Irak : un attentat à la voiture piégée à Koufa fait 53 morts et 103 blessés[11].
-Août
-4 août, Afghanistan : un attentat à la voiture piégée à Kandahar fait 21 morts[12].
-20 août, Irak : des hommes armés tirent sur des pèlerins chiites à Kadhimiya faisant 20 morts et 300 blessés[13].
-Septembre
-8 septembre, Inde : une série d'attentats à la bombe à Malegaon fait 37 morts et 125 blessés[14].
-Octobre
-16 octobre, Sri Lanka : un attentat au camion piégé contre un convoi de l'armée au Sri Lanka, non revendiqué par les Tigres Tamouls, provoque la mort d'au moins quatre-vingt-douze personnes[réf. obsolète].
-Novembre
-23 novembre, Irak : une série d'attentats à la bombe à Bagdad fait 202 morts et 250 blessés[15].
-Décembre
-30 décembre, Espagne : attentat à la voiture piégée à l'aéroport Barajas de Madrid faisant 2 morts et 52 blessés, perpétré par le groupe terroriste basque ETA[réf. nécessaire].
+          <t>Janvier</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>5 janvier, Irak : une série d'attentats-suicides à Karbala et Ramadi fait 120 morts et 160 blessés.</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Terrorisme_en_2006</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Terrorisme_en_2006</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Événements</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Mars</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>7 mars, Inde : une série d'attentats à la bombe à Varanasi fait 20 morts et 60 blessés.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Terrorisme_en_2006</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Terrorisme_en_2006</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Événements</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Avril</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>7 avril, Irak : un triple attentat-suicide près d'une mosquée chiite à Bagdad fait 85 morts et 160 blessés.
+11 avril, Pakistan : un attentat-suicide à Karachi fait 57 morts et 80 blessés.
+24 avril, Égypte : un triple attentat à Dahab en Égypte fait vingt-quatre morts et quatre-vingt-cinq blessés. (voir l'article Attentats du 24 avril 2006 à Dahab pour plus de détails)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Terrorisme_en_2006</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Terrorisme_en_2006</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Événements</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Mai</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>16 mai, Russie : le procès de Nourpachi Koulaev, unique terroriste survivant de la prise d'otages de Beslan, en septembre 2004, commence.
+26 mai, Russie : Nourpachi Koulaevest condamné à mort. Toutefois, compte tenu du moratoire sur la peine de mort ordonné en 1999, sa peine est commuée en prison à vie.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Terrorisme_en_2006</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Terrorisme_en_2006</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Événements</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Juin</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>15 juin, Sri Lanka : un attentat attribué aux Tigres Tamouls fait soixante-quatre morts au Sri Lanka[réf. obsolète].</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Terrorisme_en_2006</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Terrorisme_en_2006</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Événements</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Juillet</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>9 juillet, Irak : un attentat à la voiture piégée à Bagdad fait 40 morts.
+11 juillet, Inde : une série d'attentats dans les transports ferroviaires de Bombay — sept explosions dans différents trains — font cent quatre-vingt-trois morts. (voir l'article Attentats de Bombay du 11 juillet 2006 pour plus de détails)
+17 juillet, Irak : une attaque au mortier contre un marché à Mahmoudiyah fait 48 morts et 60 blessés.
+18 juillet, Irak : un attentat à la voiture piégée à Koufa fait 53 morts et 103 blessés.</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Terrorisme_en_2006</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Terrorisme_en_2006</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Événements</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Août</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>4 août, Afghanistan : un attentat à la voiture piégée à Kandahar fait 21 morts.
+20 août, Irak : des hommes armés tirent sur des pèlerins chiites à Kadhimiya faisant 20 morts et 300 blessés.</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Terrorisme_en_2006</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Terrorisme_en_2006</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Événements</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Septembre</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>8 septembre, Inde : une série d'attentats à la bombe à Malegaon fait 37 morts et 125 blessés.</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Terrorisme_en_2006</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Terrorisme_en_2006</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Événements</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Octobre</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>16 octobre, Sri Lanka : un attentat au camion piégé contre un convoi de l'armée au Sri Lanka, non revendiqué par les Tigres Tamouls, provoque la mort d'au moins quatre-vingt-douze personnes[réf. obsolète].</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Terrorisme_en_2006</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Terrorisme_en_2006</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Événements</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Novembre</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>23 novembre, Irak : une série d'attentats à la bombe à Bagdad fait 202 morts et 250 blessés.</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Terrorisme_en_2006</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Terrorisme_en_2006</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Événements</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Décembre</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>30 décembre, Espagne : attentat à la voiture piégée à l'aéroport Barajas de Madrid faisant 2 morts et 52 blessés, perpétré par le groupe terroriste basque ETA[réf. nécessaire].
 31 décembre,Thaïlande : un attentat à Bangkok en Thaïlande faisant deux morts[réf. obsolète].</t>
         </is>
       </c>
